--- a/Risikolog.xlsx
+++ b/Risikolog.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Umfeld" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Umfeld" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t xml:space="preserve">Projekt:</t>
   </si>
@@ -58,7 +58,16 @@
     <t xml:space="preserve">Geschätzter Schaden</t>
   </si>
   <si>
+    <t xml:space="preserve">Mitarbeiter erkranken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verzögerungen im Projektablauf</t>
+  </si>
+  <si>
     <t xml:space="preserve">offen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehrarbeit vereinbaren, Leiharbeiter</t>
   </si>
 </sst>
 </file>
@@ -186,44 +195,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -327,79 +340,185 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="27.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="31.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="27.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="7.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="31.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="27.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="22.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="22.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -407,18 +526,27 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="2" t="n">
         <f aca="false">H3*I3</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -426,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" s="2" t="n">
         <f aca="false">H4*I4</f>
@@ -438,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" s="2" t="n">
         <f aca="false">H5*I5</f>
@@ -450,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2" t="n">
         <f aca="false">H6*I6</f>
@@ -462,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" s="2" t="n">
         <f aca="false">H7*I7</f>
@@ -474,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J8" s="2" t="n">
         <f aca="false">H8*I8</f>
@@ -486,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J9" s="2" t="n">
         <f aca="false">H9*I9</f>
@@ -498,7 +626,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" s="2" t="n">
         <f aca="false">H10*I10</f>
@@ -510,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" s="2" t="n">
         <f aca="false">H11*I11</f>
@@ -522,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J12" s="2" t="n">
         <f aca="false">H12*I12</f>
@@ -534,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J13" s="2" t="n">
         <f aca="false">H13*I13</f>
@@ -546,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J14" s="2" t="n">
         <f aca="false">H14*I14</f>
@@ -558,7 +686,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J15" s="2" t="n">
         <f aca="false">H15*I15</f>
@@ -570,7 +698,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J16" s="2" t="n">
         <f aca="false">H16*I16</f>
@@ -582,7 +710,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J17" s="2" t="n">
         <f aca="false">H17*I17</f>
@@ -594,7 +722,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J18" s="2" t="n">
         <f aca="false">H18*I18</f>
@@ -606,7 +734,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J19" s="2" t="n">
         <f aca="false">H19*I19</f>
@@ -618,7 +746,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J20" s="2" t="n">
         <f aca="false">H20*I20</f>
@@ -630,7 +758,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J21" s="2" t="n">
         <f aca="false">H21*I21</f>
@@ -642,7 +770,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J22" s="2" t="n">
         <f aca="false">H22*I22</f>
@@ -654,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J23" s="2" t="n">
         <f aca="false">H23*I23</f>
@@ -666,7 +794,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J24" s="2" t="n">
         <f aca="false">H24*I24</f>
@@ -678,7 +806,7 @@
         <v>23</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J25" s="2" t="n">
         <f aca="false">H25*I25</f>
@@ -690,7 +818,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J26" s="2" t="n">
         <f aca="false">H26*I26</f>
@@ -742,8 +870,6 @@
     <cfRule type="cellIs" priority="2" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>6</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>3</formula>
     </cfRule>
